--- a/biology/Botanique/Huîtres_chaudes_au_champagne/Huîtres_chaudes_au_champagne.xlsx
+++ b/biology/Botanique/Huîtres_chaudes_au_champagne/Huîtres_chaudes_au_champagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hu%C3%AEtres_chaudes_au_champagne</t>
+          <t>Huîtres_chaudes_au_champagne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les huîtres chaudes au champagne sont une recréation de la Nouvelle cuisine au cours des années 1970. Ce mets est aujourd'hui inscrit à la carte de restaurants gastronomiques.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hu%C3%AEtres_chaudes_au_champagne</t>
+          <t>Huîtres_chaudes_au_champagne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les huîtres chaudes étaient connues en France avant la Révolution. Cette mode a été relancée par les cuisiniers adeptes de la nouvelle cuisine et s'est, au fil du temps, banalisée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les huîtres chaudes étaient connues en France avant la Révolution. Cette mode a été relancée par les cuisiniers adeptes de la nouvelle cuisine et s'est, au fil du temps, banalisée.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hu%C3%AEtres_chaudes_au_champagne</t>
+          <t>Huîtres_chaudes_au_champagne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Ingrédients</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La réalisation de cette préparation nécessite huîtres, champagne brut, œuf et crème fraîche[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La réalisation de cette préparation nécessite huîtres, champagne brut, œuf et crème fraîche.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hu%C3%AEtres_chaudes_au_champagne</t>
+          <t>Huîtres_chaudes_au_champagne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'eau des huîtres, il faut ajouter un peu de crème fraîche, du champagne et un jaune d'œuf. Après avoir fouetté le tout et fait chauffer sans bouillir,  la chair des huîtres est mise à pocher dans cette sauce[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'eau des huîtres, il faut ajouter un peu de crème fraîche, du champagne et un jaune d'œuf. Après avoir fouetté le tout et fait chauffer sans bouillir,  la chair des huîtres est mise à pocher dans cette sauce.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hu%C3%AEtres_chaudes_au_champagne</t>
+          <t>Huîtres_chaudes_au_champagne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Accord mets/vin</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traditionnellement il est bu le même champagne brut qui a été utilisé pour la sauce[2]. On peut aussi se contenter d'un coteaux-champenois[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traditionnellement il est bu le même champagne brut qui a été utilisé pour la sauce. On peut aussi se contenter d'un coteaux-champenois.
 </t>
         </is>
       </c>
